--- a/biology/Botanique/Begonia_oxyanthera/Begonia_oxyanthera.xlsx
+++ b/biology/Botanique/Begonia_oxyanthera/Begonia_oxyanthera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Begonia oxyanthera  est une espèce de plantes à fleurs de la famille des Begoniaceae. Ce bégonia est originaire d'Afrique tropicale. L'espèce fait partie de la section Tetraphila. Elle a été décrite en 1897 par Otto Warburg (1859-1938). L'épithète spécifique oxyanthera est formée à partir du grec ancien oxus, pointu, et de anthera, anthère.
 </t>
@@ -511,13 +523,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Aspect général, spécimen cultivé.
 			Détail d'une tige.
 Begonia oxyanthera est une espèce épiphyte de bégonia pouvant atteindre 6  à   9 mètres de haut.
-Les feuilles sont simples, alternes et de forme ovale-lancéolée[2].
+Les feuilles sont simples, alternes et de forme ovale-lancéolée.
 Les fleurs unisexuées sont de couleur blanche.
 Begonia oxyanthera produit des fruits sous forme de capsules déhiscentes.
 </t>
@@ -548,9 +562,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Présente sur la ligne montagneuse du Cameroun, assez commune, l'espèce a été observée principalement au Cameroun, sur une douzaine de sites dans la Région du Nord-Ouest  (mont Oku, lac Oku, réserve forestière de Bali Ngemba), la région du Sud-Ouest (Nyasoso, Kodmin, mont Koupé, mont Manengouba, Fossimondi, monts Rumpi) et celle du Littoral (mont Nlonako). Elle a également été collectée sur trois sites en Guinée équatoriale (île de Bioko) et sur un site au Nigeria. Elle croît à des altitudes comprises entre 800 et 2 400 mètres[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Présente sur la ligne montagneuse du Cameroun, assez commune, l'espèce a été observée principalement au Cameroun, sur une douzaine de sites dans la Région du Nord-Ouest  (mont Oku, lac Oku, réserve forestière de Bali Ngemba), la région du Sud-Ouest (Nyasoso, Kodmin, mont Koupé, mont Manengouba, Fossimondi, monts Rumpi) et celle du Littoral (mont Nlonako). Elle a également été collectée sur trois sites en Guinée équatoriale (île de Bioko) et sur un site au Nigeria. Elle croît à des altitudes comprises entre 800 et 2 400 mètres.
 </t>
         </is>
       </c>
@@ -579,7 +595,9 @@
           <t>Statut de conservation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le déboisement des terres pour l'agriculture ou encore le bois a peu à peu entraîné le déclin de l'espèce. Elle est de ce fait classée depuis 2003 dans la liste rouge des espèces menacées de l'Union internationale pour la conservation de la nature[réf. souhaitée].
 </t>
@@ -610,9 +628,11 @@
           <t>Utilité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En horticulture, le Begonia oxyanthera peut être cultivée en pot sur un substrat limono-sableux frais à humide avec une exposition ensoleillée à semi-ombragée et des températures comprises idéalement entre 19  et   23 °C[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En horticulture, le Begonia oxyanthera peut être cultivée en pot sur un substrat limono-sableux frais à humide avec une exposition ensoleillée à semi-ombragée et des températures comprises idéalement entre 19  et   23 °C.
 </t>
         </is>
       </c>
